--- a/tmp/Project 05-22/Project Outputs for Electro_plant/BOM/Bill of Materials-Electro_plant.xlsx
+++ b/tmp/Project 05-22/Project Outputs for Electro_plant/BOM/Bill of Materials-Electro_plant.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="26220" windowHeight="19845"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24765" windowHeight="12405"/>
   </bookViews>
   <sheets>
     <sheet name="Bill of Materials-Electro_plant" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="128">
   <si>
     <t>Comment</t>
   </si>
@@ -42,117 +42,120 @@
     <t>BargraphRG</t>
   </si>
   <si>
+    <t>Bargraph</t>
+  </si>
+  <si>
+    <t>B1</t>
+  </si>
+  <si>
+    <t>0.1uF</t>
+  </si>
+  <si>
+    <t>Capacitor</t>
+  </si>
+  <si>
+    <t>C2, C3, C4</t>
+  </si>
+  <si>
+    <t>C0603</t>
+  </si>
+  <si>
+    <t>Cap</t>
+  </si>
+  <si>
+    <t>10uF</t>
+  </si>
+  <si>
+    <t>C5, C6</t>
+  </si>
+  <si>
+    <t>100nF</t>
+  </si>
+  <si>
+    <t>C7</t>
+  </si>
+  <si>
+    <t>15pF</t>
+  </si>
+  <si>
+    <t>C8, C9</t>
+  </si>
+  <si>
+    <t>Diode</t>
+  </si>
+  <si>
+    <t>D1, D3</t>
+  </si>
+  <si>
+    <t>SMC</t>
+  </si>
+  <si>
+    <t>LED_RGB</t>
+  </si>
+  <si>
+    <t>LedRGB</t>
+  </si>
+  <si>
+    <t>D2</t>
+  </si>
+  <si>
+    <t>LED1</t>
+  </si>
+  <si>
+    <t>Program/Debug</t>
+  </si>
+  <si>
+    <t>Header, 6-Pin</t>
+  </si>
+  <si>
+    <t>J1</t>
+  </si>
+  <si>
+    <t>HDR1X6</t>
+  </si>
+  <si>
+    <t>Header 6</t>
+  </si>
+  <si>
+    <t>Header Pompe</t>
+  </si>
+  <si>
+    <t>Header, 2-Pin</t>
+  </si>
+  <si>
+    <t>P1</t>
+  </si>
+  <si>
+    <t>BORNIER</t>
+  </si>
+  <si>
+    <t>Header 2</t>
+  </si>
+  <si>
+    <t>P2, P3, P4, P5, P6, P10</t>
+  </si>
+  <si>
+    <t>Header Sensor</t>
+  </si>
+  <si>
+    <t>P7, P9</t>
+  </si>
+  <si>
+    <t>Header BAT</t>
+  </si>
+  <si>
+    <t>P8</t>
+  </si>
+  <si>
+    <t>Pump</t>
+  </si>
+  <si>
+    <t>PUMP</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
-    <t>B1</t>
-  </si>
-  <si>
-    <t>0.1uF</t>
-  </si>
-  <si>
-    <t>Capacitor</t>
-  </si>
-  <si>
-    <t>C2, C3, C4</t>
-  </si>
-  <si>
-    <t>C0603</t>
-  </si>
-  <si>
-    <t>Cap</t>
-  </si>
-  <si>
-    <t>10uF</t>
-  </si>
-  <si>
-    <t>C5, C6</t>
-  </si>
-  <si>
-    <t>100nF</t>
-  </si>
-  <si>
-    <t>C7</t>
-  </si>
-  <si>
-    <t>15pF</t>
-  </si>
-  <si>
-    <t>C8, C9</t>
-  </si>
-  <si>
-    <t>Diode</t>
-  </si>
-  <si>
-    <t>Default Diode</t>
-  </si>
-  <si>
-    <t>D1, D3</t>
-  </si>
-  <si>
-    <t>SMC</t>
-  </si>
-  <si>
-    <t>LED_RGB</t>
-  </si>
-  <si>
-    <t>D2</t>
-  </si>
-  <si>
-    <t>LED1</t>
-  </si>
-  <si>
-    <t>Program/Debug</t>
-  </si>
-  <si>
-    <t>Header, 6-Pin</t>
-  </si>
-  <si>
-    <t>J1</t>
-  </si>
-  <si>
-    <t>HDR1X6</t>
-  </si>
-  <si>
-    <t>Header 6</t>
-  </si>
-  <si>
-    <t>Header Pompe</t>
-  </si>
-  <si>
-    <t>Header, 2-Pin</t>
-  </si>
-  <si>
-    <t>P1</t>
-  </si>
-  <si>
-    <t>BORNIER</t>
-  </si>
-  <si>
-    <t>Header 2</t>
-  </si>
-  <si>
-    <t>P2, P3, P4, P5, P6, P10</t>
-  </si>
-  <si>
-    <t>Header Sensor</t>
-  </si>
-  <si>
-    <t>P7, P9</t>
-  </si>
-  <si>
-    <t>Header BAT</t>
-  </si>
-  <si>
-    <t>P8</t>
-  </si>
-  <si>
-    <t>Pump</t>
-  </si>
-  <si>
-    <t>PUMP</t>
-  </si>
-  <si>
     <t>IRFZ24N</t>
   </si>
   <si>
@@ -216,7 +219,7 @@
     <t>1KO</t>
   </si>
   <si>
-    <t>R25, R27, R29, R31, R33</t>
+    <t>R25, R27, R29, R31, R33, R40</t>
   </si>
   <si>
     <t>10MO</t>
@@ -228,37 +231,22 @@
     <t>4.7KO</t>
   </si>
   <si>
-    <t>R35, R36</t>
-  </si>
-  <si>
-    <t>4.7K</t>
-  </si>
-  <si>
-    <t>R37</t>
-  </si>
-  <si>
-    <t>R38</t>
-  </si>
-  <si>
-    <t>10K</t>
-  </si>
-  <si>
-    <t>R39, R43</t>
-  </si>
-  <si>
-    <t>1K</t>
-  </si>
-  <si>
-    <t>R40</t>
-  </si>
-  <si>
-    <t>2M</t>
+    <t>R35, R36, R37</t>
+  </si>
+  <si>
+    <t>10KO</t>
+  </si>
+  <si>
+    <t>R38, R39, R43</t>
+  </si>
+  <si>
+    <t>2MO</t>
   </si>
   <si>
     <t>R41</t>
   </si>
   <si>
-    <t>1M</t>
+    <t>1MO</t>
   </si>
   <si>
     <t>R42</t>
@@ -267,6 +255,9 @@
     <t>RPot</t>
   </si>
   <si>
+    <t>Varistor</t>
+  </si>
+  <si>
     <t>R44</t>
   </si>
   <si>
@@ -279,6 +270,9 @@
     <t>NSL-4962</t>
   </si>
   <si>
+    <t>Ldr</t>
+  </si>
+  <si>
     <t>R45</t>
   </si>
   <si>
@@ -309,6 +303,9 @@
     <t>74HC595-0</t>
   </si>
   <si>
+    <t>ShiftRegister</t>
+  </si>
+  <si>
     <t>U1</t>
   </si>
   <si>
@@ -348,12 +345,18 @@
     <t>FC1602B04-FHYYBW-91LE</t>
   </si>
   <si>
+    <t>LCD</t>
+  </si>
+  <si>
     <t>U5</t>
   </si>
   <si>
     <t>MCP23017</t>
   </si>
   <si>
+    <t>GPIOExpander</t>
+  </si>
+  <si>
     <t>U6</t>
   </si>
   <si>
@@ -363,16 +366,25 @@
     <t>DS18B20+</t>
   </si>
   <si>
+    <t>Temp</t>
+  </si>
+  <si>
     <t>U7</t>
   </si>
   <si>
     <t>PIC32MX170F256B</t>
   </si>
   <si>
+    <t>Pic</t>
+  </si>
+  <si>
     <t>U8</t>
   </si>
   <si>
     <t>LM1117D-33</t>
+  </si>
+  <si>
+    <t>Battery</t>
   </si>
   <si>
     <t>U9</t>
@@ -740,7 +752,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F44"/>
+  <dimension ref="A1:F41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -874,13 +886,13 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="D7" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>23</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>20</v>
@@ -891,10 +903,10 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>7</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>25</v>
@@ -903,7 +915,7 @@
         <v>26</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F8" s="3">
         <v>1</v>
@@ -1014,13 +1026,13 @@
         <v>42</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>7</v>
+        <v>42</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>43</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>7</v>
+        <v>44</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>42</v>
@@ -1031,19 +1043,19 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F15" s="3">
         <v>1</v>
@@ -1051,19 +1063,19 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F16" s="3">
         <v>10</v>
@@ -1071,19 +1083,19 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E17" s="2" t="s">
         <v>54</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>53</v>
       </c>
       <c r="F17" s="3">
         <v>10</v>
@@ -1091,19 +1103,19 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F18" s="3">
         <v>1</v>
@@ -1111,19 +1123,19 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F19" s="3">
         <v>1</v>
@@ -1131,19 +1143,19 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F20" s="3">
         <v>1</v>
@@ -1151,19 +1163,19 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F21" s="3">
         <v>1</v>
@@ -1171,39 +1183,39 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F22" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F23" s="3">
         <v>5</v>
@@ -1211,59 +1223,59 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F24" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F25" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D26" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B26" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="E26" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F26" s="3">
         <v>1</v>
@@ -1271,39 +1283,39 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F27" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>50</v>
+        <v>78</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>52</v>
+        <v>80</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>53</v>
+        <v>81</v>
       </c>
       <c r="F28" s="3">
         <v>1</v>
@@ -1311,19 +1323,19 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>50</v>
+        <v>83</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>52</v>
+        <v>82</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>53</v>
+        <v>82</v>
       </c>
       <c r="F29" s="3">
         <v>1</v>
@@ -1331,19 +1343,19 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>50</v>
+        <v>86</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>52</v>
+        <v>87</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>53</v>
+        <v>85</v>
       </c>
       <c r="F30" s="3">
         <v>1</v>
@@ -1351,19 +1363,19 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>7</v>
+        <v>89</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="F31" s="3">
         <v>1</v>
@@ -1371,19 +1383,19 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>7</v>
+        <v>94</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="F32" s="3">
         <v>1</v>
@@ -1391,19 +1403,19 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="F33" s="3">
         <v>1</v>
@@ -1411,19 +1423,19 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="F34" s="3">
         <v>1</v>
@@ -1431,19 +1443,19 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>7</v>
+        <v>103</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="F35" s="3">
         <v>1</v>
@@ -1451,19 +1463,19 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>7</v>
+        <v>108</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="F36" s="3">
         <v>1</v>
@@ -1471,19 +1483,19 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>7</v>
+        <v>111</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>97</v>
+        <v>110</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>98</v>
+        <v>113</v>
       </c>
       <c r="F37" s="3">
         <v>1</v>
@@ -1491,19 +1503,19 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="F38" s="3">
         <v>1</v>
@@ -1511,19 +1523,19 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>7</v>
+        <v>118</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="F39" s="3">
         <v>1</v>
@@ -1531,19 +1543,19 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>7</v>
+        <v>121</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="F40" s="3">
         <v>1</v>
@@ -1551,81 +1563,21 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>7</v>
+        <v>125</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>113</v>
+        <v>127</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>113</v>
+        <v>127</v>
       </c>
       <c r="F41" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="F42" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="F43" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="F44" s="3">
         <v>1</v>
       </c>
     </row>
